--- a/Excels/pp3_cmc.xlsx
+++ b/Excels/pp3_cmc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuantran/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\iCloud\DEV\Oristar\outsource\Pricing\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7482BB5-5BCD-994C-865D-A693E4801CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1341FC1A-523D-4C38-ACDD-5D25A915DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="19100" xr2:uid="{25CE2C8F-8565-4AA0-BD94-A8BE459E03BF}"/>
+    <workbookView xWindow="11408" yWindow="1882" windowWidth="24944" windowHeight="16231" xr2:uid="{25CE2C8F-8565-4AA0-BD94-A8BE459E03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="17012022" sheetId="2" r:id="rId1"/>
@@ -35,36 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>BM.08.02</t>
-  </si>
-  <si>
-    <t>ORISTAR CORP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Chi nhánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nhà máy</t>
-  </si>
-  <si>
-    <t>Số 8 Tôn Thất Thuyết, Hà Nội</t>
-  </si>
-  <si>
-    <t>Đường N3, KCN cao Sài Gòn, P. Long Thạnh Mỹ, Q. 9, HCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   KCN Tân Quang, Văn Lâm, Hưng Yên</t>
-  </si>
-  <si>
-    <t>SĐT: 024.3972 0120 - FAX: 024.3972 0124</t>
-  </si>
-  <si>
-    <t>ĐT: 028.7108 8838 -FAX: 028.7108 8538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ĐT: 0221.379 1661 -FAX: 0221.3791607</t>
   </si>
   <si>
     <t>=========================== BÁO GIÁ &amp; XÁC NHẬN ĐƠN HÀNG ===========================</t>
@@ -76,55 +49,19 @@
     <t xml:space="preserve">    Công ty : </t>
   </si>
   <si>
-    <t>ORISTAR Corp.</t>
-  </si>
-  <si>
-    <t>Công ty Cổ phần kỹ thuật công nghiệp Á Châu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Đại diện : </t>
-  </si>
-  <si>
-    <t>Cao Thái Bảo (090.478.0800)</t>
-  </si>
-  <si>
-    <t>Ms. Trịnh Thu Trang (0986.889.185)</t>
   </si>
   <si>
     <t xml:space="preserve">    Chức vụ : </t>
   </si>
   <si>
-    <t>Nhân viên phát triển kinh doanh</t>
-  </si>
-  <si>
-    <t>Phòng mua hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Địa chỉ : </t>
-  </si>
-  <si>
-    <t>Tầng 9, Tòa nhà Detech, số 8, Tôn Thất Thuyết, Ph. Mỹ Đình 2, Q. Nam Từ Liêm, Hà Nội</t>
-  </si>
-  <si>
-    <t>Tầng 4,5,6 tháp A, Mandarin Garden 2, số 99 phố Tân Mai, Phường Tân Mai, Q. Hoàng Mai, Hà Nội.</t>
   </si>
   <si>
     <t xml:space="preserve">    Tel/Fax: </t>
   </si>
   <si>
-    <t>024.397.20120/024.397.20124</t>
-  </si>
-  <si>
-    <t>024.22146675</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Email: </t>
-  </si>
-  <si>
-    <t>thaibao.cao@oristar.vn</t>
-  </si>
-  <si>
-    <t>trangttt@acit.com.vn</t>
   </si>
   <si>
     <t>Công ty Cổ phần Oristar (Oristar Corp.) Xin gửi đến Qúy công ty bảng báo giá</t>
@@ -191,13 +128,7 @@
     <t xml:space="preserve">- Thanh toán: </t>
   </si>
   <si>
-    <t>Trong vòng 60 ngày kể từ ngày giao hàng.</t>
-  </si>
-  <si>
     <t>- Tài khoản số:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (VNĐ) 110002873105 Ngân hàng TMCP Công thương Việt Nam – Chi nhánh Đô Thành</t>
   </si>
   <si>
     <t xml:space="preserve">   4. Giao hàng</t>
@@ -218,19 +149,10 @@
     <t>- Hàng nguyên khổ:</t>
   </si>
   <si>
-    <t>áp dụng theo tiêu chuẩn của Nhà cung cấp</t>
-  </si>
-  <si>
     <t>- Hàng gia công:</t>
   </si>
   <si>
-    <t>áp dụng theo tiêu chuẩn gia công của Nhà máy Oristar</t>
-  </si>
-  <si>
     <t xml:space="preserve">   6. Thời gian khiếu nại:</t>
-  </si>
-  <si>
-    <t>- Oristar Corp bảo hành chất lượng và số lượng của hàng hóa trong vòng 30 ngày kể từ ngày nhận hàng kèm theo các điều kiện cụ thể trong hợp đồng kinh tế hoặc hợp đồng nguyên tắc của Oristar Corp</t>
   </si>
   <si>
     <t>7.</t>
@@ -260,13 +182,7 @@
     <t xml:space="preserve">   2. Hiệu lực báo giá: 17/01/2021</t>
   </si>
   <si>
-    <t>KCN Hoà Lạc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghi chú khác: LME 9749 USD/MT; USD/VND 22570        </t>
-  </si>
-  <si>
-    <t>Trong vòng 45 ngày kể từ ngày xác nhận đơn hàng</t>
   </si>
   <si>
     <t>LME Thoi diem</t>
@@ -688,129 +604,129 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -952,144 +868,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1371600" cy="552450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52F7F03-1DE9-4AF3-B030-EAECFF71F573}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5695950" y="0"/>
-          <a:ext cx="1371600" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="600075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCEA94F-E604-4A9B-B9E2-73843A1F49CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="352425" y="47625"/>
-          <a:ext cx="571500" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1395,54 +1173,54 @@
   </sheetPr>
   <dimension ref="A1:Q268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="35"/>
-    <col min="3" max="3" width="20.5" style="35" customWidth="1"/>
-    <col min="4" max="6" width="12.1640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="35"/>
+    <col min="3" max="3" width="20.46484375" style="35" customWidth="1"/>
+    <col min="4" max="6" width="12.1328125" style="35" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="35" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" style="35" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="35" customWidth="1"/>
     <col min="11" max="11" width="0.6640625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="35"/>
+    <col min="12" max="12" width="9.1328125" style="35"/>
     <col min="13" max="13" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="35"/>
+    <col min="15" max="15" width="14.796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.46484375" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1451,21 +1229,15 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="45"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="37" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="37"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1475,21 +1247,15 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="38" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H5" s="38"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1499,21 +1265,15 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="38"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1523,19 +1283,19 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1544,7 +1304,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1563,23 +1323,23 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1588,7 +1348,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1607,25 +1367,21 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1634,29 +1390,25 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="4"/>
       <c r="L12" s="1"/>
       <c r="M12" s="40" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N12" s="40"/>
       <c r="O12" s="40">
@@ -1665,29 +1417,25 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="4"/>
       <c r="L13" s="1"/>
       <c r="M13" s="40" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="N13" s="40"/>
       <c r="O13" s="40">
@@ -1696,29 +1444,25 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="4"/>
       <c r="L14" s="1"/>
       <c r="M14" s="40" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40">
@@ -1727,29 +1471,25 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="40" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N15" s="40"/>
       <c r="O15" s="40">
@@ -1758,29 +1498,25 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="4"/>
       <c r="L16" s="1"/>
       <c r="M16" s="40" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="N16" s="40"/>
       <c r="O16" s="40">
@@ -1789,7 +1525,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1803,7 +1539,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="40" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40">
@@ -1812,23 +1548,23 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A18" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="31"/>
       <c r="L18" s="1"/>
       <c r="M18" s="40" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="40">
@@ -1837,13 +1573,13 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
+    <row r="19" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -1858,32 +1594,32 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="56"/>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="61"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1891,78 +1627,78 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="62"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="62"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="34" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="75"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B24" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="62"/>
+      <c r="B24" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="42"/>
       <c r="D24" s="6">
         <v>10</v>
       </c>
@@ -1983,18 +1719,18 @@
         <f>+$O$27</f>
         <v>248925</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="43">
         <f>H24*I24</f>
         <v>6937614.4275000002</v>
       </c>
-      <c r="K24" s="74"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="1"/>
       <c r="M24" s="9">
         <f>(D24*E24 - (D24*D24*0.215))* 0.0358</f>
         <v>27.8703</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O24" s="11">
         <v>9749</v>
@@ -2003,14 +1739,14 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="62"/>
+      <c r="B25" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="42"/>
       <c r="D25" s="6">
         <v>10</v>
       </c>
@@ -2031,18 +1767,18 @@
         <f>+$O$27</f>
         <v>248925</v>
       </c>
-      <c r="J25" s="73">
+      <c r="J25" s="43">
         <f t="shared" ref="J25" si="0">H25*I25</f>
         <v>2055325085.0549998</v>
       </c>
-      <c r="K25" s="74"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="1"/>
       <c r="M25" s="9">
         <f>(D25*E25 - (D25*D25*0.215))* 0.0358</f>
         <v>17.130299999999998</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O25" s="12">
         <v>22.57</v>
@@ -2051,12 +1787,12 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="76"/>
+      <c r="B26" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="57"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
@@ -2069,84 +1805,84 @@
         <v>8284.6749</v>
       </c>
       <c r="I26" s="15"/>
-      <c r="J26" s="77">
+      <c r="J26" s="58">
         <f>SUM(J24:K25)</f>
         <v>2062262699.4824998</v>
       </c>
-      <c r="K26" s="77"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="1"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
       <c r="O26" s="12"/>
       <c r="P26" s="28"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="5"/>
-      <c r="B27" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="76"/>
+      <c r="B27" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="57"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="13"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="77">
+      <c r="J27" s="58">
         <f>J26*0.1</f>
         <v>206226269.94825</v>
       </c>
-      <c r="K27" s="77"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="1"/>
       <c r="M27" s="22"/>
       <c r="N27" s="17" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="O27" s="40">
         <f>ROUND((O24+1280)*O25,0)</f>
         <v>248925</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="76"/>
+      <c r="B28" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="57"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="13"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="77">
+      <c r="J28" s="58">
         <f>J26+J27</f>
         <v>2268488969.4307499</v>
       </c>
-      <c r="K28" s="77"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="1"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
-      <c r="B29" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
+      <c r="B29" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
       <c r="K29" s="21"/>
       <c r="L29" s="1"/>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A30" s="32" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -2161,12 +1897,12 @@
       <c r="L30" s="1"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+    <row r="31" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A31" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -2178,49 +1914,45 @@
       <c r="L31" s="1"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C32" s="31"/>
-      <c r="D32" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="31"/>
       <c r="L32" s="1"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A33" s="31"/>
-      <c r="B33" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
       <c r="K33" s="31"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
+    <row r="34" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A34" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -2231,52 +1963,48 @@
       <c r="K34" s="31"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="31"/>
       <c r="B35" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C35" s="31"/>
-      <c r="D35" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="31" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="31"/>
-      <c r="B36" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
+      <c r="B36" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
       <c r="K36" s="31"/>
       <c r="L36" s="1"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
+    <row r="37" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A37" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
@@ -2289,104 +2017,98 @@
       <c r="M37" s="22"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A38" s="31"/>
-      <c r="B38" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
+      <c r="B38" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
       <c r="K38" s="31"/>
       <c r="L38" s="1"/>
       <c r="M38" s="22"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A39" s="31"/>
-      <c r="B39" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
+      <c r="B39" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
       <c r="K39" s="31"/>
       <c r="L39" s="1"/>
       <c r="M39" s="22"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
+    <row r="40" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
       <c r="K40" s="31"/>
       <c r="L40" s="1"/>
       <c r="M40" s="22"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="31"/>
-      <c r="B41" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
       <c r="K41" s="31"/>
       <c r="L41" s="1"/>
       <c r="M41" s="22"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="31"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="31"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A43" s="25" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -2401,7 +2123,7 @@
       <c r="M43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2417,43 +2139,43 @@
       <c r="M44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
-      <c r="B45" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
+      <c r="B45" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
+      <c r="G45" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2471,7 +2193,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2489,7 +2211,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2507,7 +2229,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2525,7 +2247,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2543,7 +2265,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2561,7 +2283,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2579,7 +2301,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2597,7 +2319,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2615,7 +2337,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2633,7 +2355,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2651,7 +2373,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2669,7 +2391,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2687,7 +2409,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2705,7 +2427,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2723,7 +2445,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2741,7 +2463,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2760,7 +2482,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2779,7 +2501,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2798,7 +2520,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2817,7 +2539,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2836,7 +2558,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2855,7 +2577,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2874,7 +2596,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2893,7 +2615,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2912,7 +2634,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2931,7 +2653,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2950,7 +2672,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2969,7 +2691,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2988,7 +2710,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3007,7 +2729,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3026,7 +2748,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3045,7 +2767,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3064,7 +2786,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3083,7 +2805,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3102,7 +2824,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3121,7 +2843,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3140,7 +2862,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3159,7 +2881,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3178,7 +2900,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3197,7 +2919,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3216,7 +2938,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3235,7 +2957,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3254,7 +2976,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3273,7 +2995,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3292,7 +3014,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3311,7 +3033,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3330,7 +3052,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3349,7 +3071,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3368,7 +3090,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3387,7 +3109,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3406,7 +3128,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3425,7 +3147,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3444,7 +3166,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3463,7 +3185,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3482,7 +3204,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3501,7 +3223,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3520,7 +3242,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3539,7 +3261,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3558,7 +3280,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3577,7 +3299,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3596,7 +3318,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3615,7 +3337,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3634,7 +3356,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3653,7 +3375,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3672,7 +3394,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3691,7 +3413,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3710,7 +3432,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3729,7 +3451,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3748,7 +3470,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3767,7 +3489,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3786,7 +3508,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3805,7 +3527,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3824,7 +3546,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3843,7 +3565,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3862,7 +3584,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3881,7 +3603,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3900,7 +3622,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3919,7 +3641,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3938,7 +3660,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3957,7 +3679,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3976,7 +3698,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3995,7 +3717,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4014,7 +3736,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4033,7 +3755,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4052,7 +3774,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4071,7 +3793,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4090,7 +3812,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4109,7 +3831,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4128,7 +3850,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4147,7 +3869,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4166,7 +3888,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4185,7 +3907,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4204,7 +3926,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4223,7 +3945,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4242,7 +3964,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4261,7 +3983,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4280,7 +4002,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4299,7 +4021,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4318,7 +4040,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4337,7 +4059,7 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4356,7 +4078,7 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4375,7 +4097,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4394,7 +4116,7 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4413,7 +4135,7 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4432,7 +4154,7 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4451,7 +4173,7 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4470,7 +4192,7 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4489,7 +4211,7 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4508,7 +4230,7 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4527,7 +4249,7 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4546,7 +4268,7 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4565,7 +4287,7 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4584,7 +4306,7 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4603,7 +4325,7 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4622,7 +4344,7 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4641,7 +4363,7 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4660,7 +4382,7 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4679,7 +4401,7 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4698,7 +4420,7 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4717,7 +4439,7 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4736,7 +4458,7 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4755,7 +4477,7 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4774,7 +4496,7 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4793,7 +4515,7 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4812,7 +4534,7 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4831,7 +4553,7 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4850,7 +4572,7 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4869,7 +4591,7 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4888,7 +4610,7 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4907,7 +4629,7 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4926,7 +4648,7 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4945,7 +4667,7 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4964,7 +4686,7 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4983,7 +4705,7 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5002,7 +4724,7 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5021,7 +4743,7 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5040,7 +4762,7 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5059,7 +4781,7 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5078,7 +4800,7 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5097,7 +4819,7 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5116,7 +4838,7 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5135,7 +4857,7 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5154,7 +4876,7 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5173,7 +4895,7 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5192,7 +4914,7 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5211,7 +4933,7 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5230,7 +4952,7 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5249,7 +4971,7 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5268,7 +4990,7 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5287,7 +5009,7 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5306,7 +5028,7 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5325,7 +5047,7 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5344,7 +5066,7 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5363,7 +5085,7 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5382,7 +5104,7 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5401,7 +5123,7 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5420,7 +5142,7 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5439,7 +5161,7 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5458,7 +5180,7 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5477,7 +5199,7 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5496,7 +5218,7 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5515,7 +5237,7 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5534,7 +5256,7 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5553,7 +5275,7 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5572,7 +5294,7 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5591,7 +5313,7 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5610,7 +5332,7 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5629,7 +5351,7 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5648,7 +5370,7 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5667,7 +5389,7 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5686,7 +5408,7 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5705,7 +5427,7 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5724,7 +5446,7 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5743,7 +5465,7 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5762,7 +5484,7 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5781,7 +5503,7 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5800,7 +5522,7 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5819,7 +5541,7 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5838,7 +5560,7 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5857,7 +5579,7 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5876,7 +5598,7 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5895,7 +5617,7 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5914,7 +5636,7 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5933,7 +5655,7 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5952,7 +5674,7 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5971,7 +5693,7 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5990,7 +5712,7 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6009,7 +5731,7 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6028,7 +5750,7 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6047,7 +5769,7 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6066,7 +5788,7 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -6074,7 +5796,7 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -6082,7 +5804,7 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -6090,7 +5812,7 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
     </row>
-    <row r="241" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
@@ -6098,7 +5820,7 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
     </row>
-    <row r="242" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -6106,7 +5828,7 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
     </row>
-    <row r="243" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
@@ -6114,7 +5836,7 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
     </row>
-    <row r="244" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -6122,7 +5844,7 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
     </row>
-    <row r="245" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -6130,7 +5852,7 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
     </row>
-    <row r="246" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
@@ -6138,7 +5860,7 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
     </row>
-    <row r="247" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -6146,7 +5868,7 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
     </row>
-    <row r="248" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -6154,7 +5876,7 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
     </row>
-    <row r="249" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -6162,110 +5884,161 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
     </row>
-    <row r="250" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
     </row>
-    <row r="251" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
     </row>
-    <row r="252" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
     </row>
-    <row r="253" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
     </row>
-    <row r="254" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="12:17" x14ac:dyDescent="0.45">
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
     </row>
-    <row r="255" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="12:17" x14ac:dyDescent="0.45">
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
     </row>
-    <row r="256" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="12:17" x14ac:dyDescent="0.45">
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
     </row>
-    <row r="257" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
     </row>
-    <row r="258" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
     </row>
-    <row r="259" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
     </row>
-    <row r="260" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
     </row>
-    <row r="261" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
     </row>
-    <row r="262" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
     </row>
-    <row r="263" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
     </row>
-    <row r="264" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
     </row>
-    <row r="265" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
     </row>
-    <row r="266" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
     </row>
-    <row r="267" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
     </row>
-    <row r="268" spans="14:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="14:17" x14ac:dyDescent="0.45">
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I1:J3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="B45:D46"/>
@@ -6282,57 +6055,6 @@
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="B41:J42"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="I1:J3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>

--- a/Excels/pp3_cmc.xlsx
+++ b/Excels/pp3_cmc.xlsx
@@ -1,350 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\iCloud\DEV\Oristar\outsource\Pricing\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1341FC1A-523D-4C38-ACDD-5D25A915DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11408" yWindow="1882" windowWidth="24944" windowHeight="16231" xr2:uid="{25CE2C8F-8565-4AA0-BD94-A8BE459E03BF}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="17012022" sheetId="2" r:id="rId1"/>
+    <sheet name="17012022" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'17012022'!$A$1:$K$46</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
+  <webPublishing/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">Ghi chú khác: LME 9749 USD/MT; USD/VND 22570        </t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Email: </t>
+  </si>
+  <si>
+    <t>Tên hàng/Mã hàng_x000D_
+(Hợp kim)</t>
+  </si>
+  <si>
+    <t>21.12.HL-07</t>
+  </si>
+  <si>
+    <t>Đại Diện Bán Hàng</t>
+  </si>
+  <si>
+    <t>- Hàng gia công:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rộng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Công ty : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chức vụ : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Hiệu lực báo giá: 17/01/2021</t>
+  </si>
   <si>
     <t>BM.08.02</t>
+  </si>
+  <si>
+    <t>LME Thoi diem</t>
   </si>
   <si>
     <t>=========================== BÁO GIÁ &amp; XÁC NHẬN ĐƠN HÀNG ===========================</t>
   </si>
   <si>
+    <t>Thành tiền (VNĐ)</t>
+  </si>
+  <si>
+    <t>- Hàng nguyên khổ:</t>
+  </si>
+  <si>
     <t>Số.:</t>
   </si>
   <si>
-    <t xml:space="preserve">    Công ty : </t>
+    <t xml:space="preserve">    Tel/Fax: </t>
+  </si>
+  <si>
+    <t>Đơn giá (VNĐ/Kg)</t>
+  </si>
+  <si>
+    <t>- Tài khoản số:</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 17 tháng 01 năm 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6. Thời gian khiếu nại:</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Oristar (Oristar Corp.) Xin gửi đến Qúy công ty bảng báo giá</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Tổng giá trị đơn hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LME (USD/MT): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Địa điểm giao hàng: </t>
+  </si>
+  <si>
+    <t>Đồng tinh luyện thanh chữ nhật cạnh tròn, C1100 - 1/2H</t>
+  </si>
+  <si>
+    <t>Ngày lấy giá</t>
+  </si>
+  <si>
+    <t>- Khối lượng trên (tính theo barem đã thỏa thuận) là khối lượng thanh toán giữa hai bên.</t>
+  </si>
+  <si>
+    <t>Thuế GTGT VAT 10%</t>
+  </si>
+  <si>
+    <t>Ty gia ban VCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Chi tiết hàng hóa</t>
   </si>
   <si>
     <t xml:space="preserve">    Đại diện : </t>
   </si>
   <si>
-    <t xml:space="preserve">    Chức vụ : </t>
+    <t>Kích thước (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. Giao hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thanh toán: </t>
+  </si>
+  <si>
+    <t>LME Trung binh tuan</t>
+  </si>
+  <si>
+    <t>Khối lượng (kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00192/BG/HN-22     </t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>SMM Trung binh thang</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Giao hàng: </t>
   </si>
   <si>
     <t xml:space="preserve">    Địa chỉ : </t>
   </si>
   <si>
-    <t xml:space="preserve">    Tel/Fax: </t>
+    <t>Ty gia mua VCB</t>
   </si>
   <si>
-    <t xml:space="preserve">    Email: </t>
+    <t>LME Trung binh thang</t>
   </si>
   <si>
-    <t>Công ty Cổ phần Oristar (Oristar Corp.) Xin gửi đến Qúy công ty bảng báo giá</t>
+    <t>SMM Trung binh tuan</t>
   </si>
   <si>
-    <t xml:space="preserve">   1. Chi tiết hàng hóa</t>
+    <t xml:space="preserve">Tỷ giá Vietcombank : </t>
   </si>
   <si>
-    <t>STT</t>
+    <t>Đại Diện Mua Hàng</t>
   </si>
   <si>
-    <t>Tên hàng/Mã hàng
-(Hợp kim)</t>
+    <t xml:space="preserve">   3. Thanh toán</t>
   </si>
   <si>
-    <t>Kích thước (mm)</t>
+    <t xml:space="preserve">   5. Tiêu chuẩn chất lượng</t>
+  </si>
+  <si>
+    <t>Dài</t>
+  </si>
+  <si>
+    <t>SMM Thoi diem</t>
   </si>
   <si>
     <t>Số lượng (Pcs)</t>
   </si>
   <si>
-    <t>Khối lượng (kg)</t>
-  </si>
-  <si>
-    <t>Đơn giá (VNĐ/Kg)</t>
-  </si>
-  <si>
-    <t>Thành tiền (VNĐ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rộng </t>
-  </si>
-  <si>
-    <t>Dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LME (USD/MT): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tỷ giá Vietcombank : </t>
-  </si>
-  <si>
     <t>Tổng cộng:</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Thuế GTGT VAT 10%</t>
-  </si>
-  <si>
-    <t>Tổng giá trị đơn hàng</t>
-  </si>
-  <si>
-    <t>- Khối lượng trên (tính theo barem đã thỏa thuận) là khối lượng thanh toán giữa hai bên.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3. Thanh toán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thanh toán: </t>
-  </si>
-  <si>
-    <t>- Tài khoản số:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   4. Giao hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Giao hàng: </t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Địa điểm giao hàng: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   5. Tiêu chuẩn chất lượng</t>
-  </si>
-  <si>
-    <t>- Hàng nguyên khổ:</t>
-  </si>
-  <si>
-    <t>- Hàng gia công:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   6. Thời gian khiếu nại:</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Đại Diện Bán Hàng</t>
-  </si>
-  <si>
-    <t>Đại Diện Mua Hàng</t>
-  </si>
-  <si>
-    <t>Ngày lấy giá</t>
-  </si>
-  <si>
-    <t>Đồng tinh luyện thanh chữ nhật cạnh tròn, C1100 - 1/2H</t>
-  </si>
-  <si>
-    <t>21.12.HL-07</t>
-  </si>
-  <si>
-    <t>Hà Nội, ngày 17 tháng 01 năm 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00192/BG/HN-22     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2. Hiệu lực báo giá: 17/01/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú khác: LME 9749 USD/MT; USD/VND 22570        </t>
-  </si>
-  <si>
-    <t>LME Thoi diem</t>
-  </si>
-  <si>
-    <t>SMM Thoi diem</t>
-  </si>
-  <si>
-    <t>SMM Trung binh thang</t>
-  </si>
-  <si>
-    <t>LME Trung binh thang</t>
-  </si>
-  <si>
-    <t>LME Trung binh tuan</t>
-  </si>
-  <si>
-    <t>SMM Trung binh tuan</t>
-  </si>
-  <si>
-    <t>Ty gia VCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _₫_-;\-* #,##0.000\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -353,32 +326,49 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -392,13 +382,15 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -408,343 +400,478 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="86">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="87">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="36"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="37"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="4" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="4" borderId="5" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{84385182-164F-49AD-8515-BF619A17217A}"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{54AC4B51-F650-4AF7-8103-96CFA49D3F69}"/>
+  <cellStyles count="10">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Comma 2" xfId="34"/>
+    <cellStyle name="Normal 3" xfId="35"/>
+    <cellStyle name="Good" xfId="36"/>
+    <cellStyle name="Calculation" xfId="37"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1167,60 +1294,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B08F6B4-6229-4385-8D17-5DBB79EF284F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
+      <selection pane="topLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.142857142857142" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="35"/>
-    <col min="3" max="3" width="20.46484375" style="35" customWidth="1"/>
-    <col min="4" max="6" width="12.1328125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="0.6640625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" style="35"/>
-    <col min="13" max="13" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="14.796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.46484375" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1328125" style="35"/>
+    <col min="1" max="1" width="5.142857142857143" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.142857142857142" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.285714285714285" style="35" customWidth="1"/>
+    <col min="4" max="6" width="12" style="35" customWidth="1"/>
+    <col min="7" max="7" width="10.142857142857142" style="35" customWidth="1"/>
+    <col min="8" max="8" width="11.285714285714286" style="35" customWidth="1"/>
+    <col min="9" max="9" width="13.571428571428571" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.571428571428571" style="35" customWidth="1"/>
+    <col min="11" max="11" width="0.5714285714285714" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9.142857142857142" style="35" customWidth="1"/>
+    <col min="13" max="13" width="8.571428571428571" style="35" customWidth="1"/>
+    <col min="14" max="14" width="20.428571428571427" style="35" customWidth="1"/>
+    <col min="15" max="15" width="14.714285714285714" style="35" customWidth="1"/>
+    <col min="16" max="16" width="11.285714285714286" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="9.142857142857142" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-    </row>
-    <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="15" customHeight="1">
+      <c r="B1" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+    </row>
+    <row r="2" spans="2:11" ht="15" customHeight="1">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1229,13 +1356,13 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="2"/>
       <c r="H4" s="37"/>
       <c r="J4" s="1"/>
@@ -1247,11 +1374,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="38"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1265,11 +1392,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="38"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1283,19 +1410,19 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+    <row r="7" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1304,7 +1431,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="15" customHeight="1" hidden="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1323,23 +1450,23 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1348,7 +1475,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="4.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1367,21 +1494,21 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+    <row r="11" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A11" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1390,52 +1517,52 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="70" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B12" s="70"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+        <v>34</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="4"/>
       <c r="L12" s="1"/>
       <c r="M12" s="40" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N12" s="40"/>
       <c r="O12" s="40">
-        <v>9050</v>
+        <v>90500</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="70"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="4"/>
       <c r="L13" s="1"/>
       <c r="M13" s="40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N13" s="40"/>
       <c r="O13" s="40">
@@ -1444,25 +1571,25 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+    <row r="14" spans="1:17" ht="32.25" customHeight="1">
+      <c r="A14" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="4"/>
       <c r="L14" s="1"/>
       <c r="M14" s="40" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40">
@@ -1471,25 +1598,25 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="70" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N15" s="40"/>
       <c r="O15" s="40">
@@ -1498,25 +1625,25 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="70" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B16" s="70"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="4"/>
       <c r="L16" s="1"/>
       <c r="M16" s="40" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N16" s="40"/>
       <c r="O16" s="40">
@@ -1525,7 +1652,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" ht="13.15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1539,7 +1666,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40">
@@ -1548,23 +1675,23 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="31"/>
       <c r="L18" s="1"/>
       <c r="M18" s="40" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="40">
@@ -1573,13 +1700,13 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="A19" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -1588,38 +1715,42 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="M19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40">
+        <v>22665</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="73" t="s">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="A20" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1627,78 +1758,78 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="A21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="34" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+        <v>53</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
+      <c r="A23" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="31.5" customHeight="1">
       <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="42"/>
+      <c r="B24" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="43"/>
       <c r="D24" s="6">
         <v>10</v>
       </c>
@@ -1712,41 +1843,41 @@
         <v>1</v>
       </c>
       <c r="H24" s="8">
-        <f>G24*M24</f>
+        <f ca="1">G24*M24</f>
         <v>27.8703</v>
       </c>
       <c r="I24" s="29">
-        <f>+$O$27</f>
-        <v>248925</v>
-      </c>
-      <c r="J24" s="43">
-        <f>H24*I24</f>
-        <v>6937614.4275000002</v>
-      </c>
-      <c r="K24" s="44"/>
+        <f ca="1">+$O$27</f>
+        <v>2080193700</v>
+      </c>
+      <c r="J24" s="44">
+        <f ca="1">H24*I24</f>
+        <v>57975622477.11</v>
+      </c>
+      <c r="K24" s="45"/>
       <c r="L24" s="1"/>
       <c r="M24" s="9">
-        <f>(D24*E24 - (D24*D24*0.215))* 0.0358</f>
+        <f ca="1">(D24*E24 - (D24*D24*0.215))* 0.0358</f>
         <v>27.8703</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O24" s="11">
-        <v>9749</v>
+        <v>90500</v>
       </c>
       <c r="P24" s="27">
         <v>44578</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="31.5" customHeight="1">
       <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="42"/>
+      <c r="B25" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="43"/>
       <c r="D25" s="6">
         <v>10</v>
       </c>
@@ -1760,129 +1891,129 @@
         <v>482</v>
       </c>
       <c r="H25" s="8">
-        <f>G25*M25</f>
-        <v>8256.8045999999995</v>
+        <f ca="1">G25*M25</f>
+        <v>8256.8046</v>
       </c>
       <c r="I25" s="29">
-        <f>+$O$27</f>
-        <v>248925</v>
-      </c>
-      <c r="J25" s="43">
-        <f t="shared" ref="J25" si="0">H25*I25</f>
-        <v>2055325085.0549998</v>
-      </c>
-      <c r="K25" s="44"/>
+        <f ca="1">+$O$27</f>
+        <v>2080193700</v>
+      </c>
+      <c r="J25" s="44">
+        <f ca="1">H25*I25</f>
+        <v>17175752911051.02</v>
+      </c>
+      <c r="K25" s="45"/>
       <c r="L25" s="1"/>
       <c r="M25" s="9">
-        <f>(D25*E25 - (D25*D25*0.215))* 0.0358</f>
-        <v>17.130299999999998</v>
+        <f ca="1">(D25*E25 - (D25*D25*0.215))* 0.0358</f>
+        <v>17.1303</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="O25" s="12">
-        <v>22.57</v>
+        <v>22665</v>
       </c>
       <c r="P25" s="27">
         <v>44578</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="33.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="57"/>
+      <c r="B26" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="58"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15">
-        <f>SUM(G24:G25)</f>
+        <f ca="1">SUM(G24:G25)</f>
         <v>483</v>
       </c>
       <c r="H26" s="16">
-        <f>SUM(H24:H25)</f>
+        <f ca="1">SUM(H24:H25)</f>
         <v>8284.6749</v>
       </c>
       <c r="I26" s="15"/>
-      <c r="J26" s="58">
-        <f>SUM(J24:K25)</f>
-        <v>2062262699.4824998</v>
-      </c>
-      <c r="K26" s="58"/>
+      <c r="J26" s="59">
+        <f ca="1">SUM(J24:K25)</f>
+        <v>17233728533528.129</v>
+      </c>
+      <c r="K26" s="59"/>
       <c r="L26" s="1"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
       <c r="O26" s="12"/>
       <c r="P26" s="28"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" ht="31.5" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="57"/>
+      <c r="B27" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="58"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="13"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="58">
-        <f>J26*0.1</f>
-        <v>206226269.94825</v>
-      </c>
-      <c r="K27" s="58"/>
+      <c r="J27" s="59">
+        <f ca="1">J26*0.1</f>
+        <v>1723372853352.813</v>
+      </c>
+      <c r="K27" s="59"/>
       <c r="L27" s="1"/>
       <c r="M27" s="22"/>
       <c r="N27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="41">
+        <f ca="1">ROUND((O24+1280)*O25,0)</f>
+        <v>2080193700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="40">
-        <f>ROUND((O24+1280)*O25,0)</f>
-        <v>248925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="13"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="58">
-        <f>J26+J27</f>
-        <v>2268488969.4307499</v>
-      </c>
-      <c r="K28" s="58"/>
+      <c r="J28" s="59">
+        <f ca="1">J26+J27</f>
+        <v>18957101386880.94</v>
+      </c>
+      <c r="K28" s="59"/>
       <c r="L28" s="1"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="31.5" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="B29" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="21"/>
       <c r="L29" s="1"/>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -1897,12 +2028,12 @@
       <c r="L30" s="1"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="A31" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -1914,45 +2045,45 @@
       <c r="L31" s="1"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C32" s="31"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
       <c r="K32" s="31"/>
       <c r="L32" s="1"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="31"/>
-      <c r="B33" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
+      <c r="B33" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="31"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+    <row r="34" spans="1:13" ht="15" customHeight="1">
+      <c r="A34" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -1963,48 +2094,48 @@
       <c r="K34" s="31"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="31"/>
       <c r="B35" s="30" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C35" s="31"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="31" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="31"/>
-      <c r="B36" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="B36" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="31"/>
       <c r="L36" s="1"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A37" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
+      <c r="A37" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
@@ -2017,98 +2148,98 @@
       <c r="M37" s="22"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="31"/>
-      <c r="B38" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
+      <c r="B38" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="31"/>
       <c r="L38" s="1"/>
       <c r="M38" s="22"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="31"/>
-      <c r="B39" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
+      <c r="B39" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="31"/>
       <c r="L39" s="1"/>
       <c r="M39" s="22"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A40" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
+      <c r="A40" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="31"/>
       <c r="L40" s="1"/>
       <c r="M40" s="22"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="31"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="31"/>
       <c r="L41" s="1"/>
       <c r="M41" s="22"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="31"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="31"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -2123,7 +2254,7 @@
       <c r="M43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2139,43 +2270,43 @@
       <c r="M44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="G45" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2193,7 +2324,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2211,7 +2342,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2229,7 +2360,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" ht="15" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2247,7 +2378,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" ht="15" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2265,7 +2396,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" ht="15" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2283,7 +2414,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2301,7 +2432,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" ht="15" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2319,7 +2450,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" ht="15" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2337,7 +2468,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" ht="15" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2355,7 +2486,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" ht="15" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2373,7 +2504,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" ht="15" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2391,7 +2522,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" ht="15" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2409,7 +2540,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2427,7 +2558,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" ht="15" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2445,7 +2576,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" ht="15" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2463,7 +2594,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" ht="15" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2482,7 +2613,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" ht="15" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2501,7 +2632,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" ht="15" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2520,7 +2651,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2539,7 +2670,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" ht="15" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2558,7 +2689,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" ht="15" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2577,7 +2708,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" ht="15" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2596,7 +2727,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" ht="15" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2615,7 +2746,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2634,7 +2765,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2653,7 +2784,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" ht="22.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2672,7 +2803,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2691,7 +2822,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2710,7 +2841,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" ht="15" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2729,7 +2860,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2748,7 +2879,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2767,7 +2898,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" ht="15" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2786,7 +2917,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="15" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2805,7 +2936,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2824,7 +2955,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" ht="15" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2843,7 +2974,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2862,7 +2993,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2881,7 +3012,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" ht="15" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2900,7 +3031,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2919,7 +3050,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2938,7 +3069,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" ht="15" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2957,7 +3088,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2976,7 +3107,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" ht="15" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2995,7 +3126,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" ht="15" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3014,7 +3145,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3033,7 +3164,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3052,7 +3183,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" ht="15" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3071,7 +3202,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3090,7 +3221,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3109,7 +3240,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" ht="15" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3128,7 +3259,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3147,7 +3278,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3166,7 +3297,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" ht="15" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3185,7 +3316,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" ht="15" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3204,7 +3335,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" ht="15" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3223,7 +3354,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3242,7 +3373,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3261,7 +3392,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" ht="15" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3280,7 +3411,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3299,7 +3430,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3318,7 +3449,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" ht="15" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3337,7 +3468,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3356,7 +3487,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3375,7 +3506,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" ht="15" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3394,7 +3525,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" ht="15" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3413,7 +3544,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:17" ht="15" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3432,7 +3563,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:17" ht="15" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3451,7 +3582,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3470,7 +3601,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:17" ht="15" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3489,7 +3620,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:17" ht="15" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3508,7 +3639,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:17" ht="15" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3527,7 +3658,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:17" ht="15" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3546,7 +3677,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:17" ht="15" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3565,7 +3696,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:17" ht="15" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3584,7 +3715,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3603,7 +3734,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:17" ht="15" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3622,7 +3753,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:17" ht="15" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3641,7 +3772,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3660,7 +3791,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:17" ht="15" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3679,7 +3810,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:17" ht="15" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3698,7 +3829,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3717,7 +3848,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:17" ht="15" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3736,7 +3867,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:17" ht="15" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3755,7 +3886,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:17" ht="15" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3774,7 +3905,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:17" ht="15" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3793,7 +3924,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:17" ht="15" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3812,7 +3943,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:17" ht="15" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3831,7 +3962,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:17" ht="15" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3850,7 +3981,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:17" ht="15" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3869,7 +4000,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:17" ht="15" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3888,7 +4019,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:17" ht="15" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3907,7 +4038,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:17" ht="15" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3926,7 +4057,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:17" ht="15" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3945,7 +4076,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:17" ht="15" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3964,7 +4095,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:17" ht="15" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3983,7 +4114,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:17" ht="15" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4002,7 +4133,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:17" ht="15" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4021,7 +4152,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:17" ht="15" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4040,7 +4171,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:17" ht="15" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4059,7 +4190,7 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:17" ht="15" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4078,7 +4209,7 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:17" ht="15" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4097,7 +4228,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:17" ht="15" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4116,7 +4247,7 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:17" ht="15" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4135,7 +4266,7 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:17" ht="15" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4154,7 +4285,7 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:17" ht="15" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4173,7 +4304,7 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:17" ht="15" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4192,7 +4323,7 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:17" ht="15" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4211,7 +4342,7 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:17" ht="15" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4230,7 +4361,7 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:17" ht="15" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4249,7 +4380,7 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:17" ht="15" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4268,7 +4399,7 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:17" ht="15" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4287,7 +4418,7 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:17" ht="15" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4306,7 +4437,7 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:17" ht="15" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4325,7 +4456,7 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:17" ht="15" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4344,7 +4475,7 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:17" ht="15" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4363,7 +4494,7 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:17" ht="15" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4382,7 +4513,7 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:17" ht="15" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4401,7 +4532,7 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:17" ht="15" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4420,7 +4551,7 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:17" ht="15" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4439,7 +4570,7 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:17" ht="15" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4458,7 +4589,7 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:17" ht="15" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4477,7 +4608,7 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:17" ht="15" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4496,7 +4627,7 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:17" ht="15" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4515,7 +4646,7 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" ht="15" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4534,7 +4665,7 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:17" ht="15" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4553,7 +4684,7 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:17" ht="15" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4572,7 +4703,7 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:17" ht="15" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4591,7 +4722,7 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:17" ht="15" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4610,7 +4741,7 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:17" ht="15" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4629,7 +4760,7 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:17" ht="15" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4648,7 +4779,7 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:17" ht="15" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4667,7 +4798,7 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:17" ht="15" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4686,7 +4817,7 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:17" ht="15" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4705,7 +4836,7 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:17" ht="15" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4724,7 +4855,7 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:17" ht="15" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4743,7 +4874,7 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:17" ht="15" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4762,7 +4893,7 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:17" ht="15" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4781,7 +4912,7 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:17" ht="15" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4800,7 +4931,7 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:17" ht="15" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4819,7 +4950,7 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:17" ht="15" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4838,7 +4969,7 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:17" ht="15" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4857,7 +4988,7 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:17" ht="15" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4876,7 +5007,7 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:17" ht="15" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4895,7 +5026,7 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:17" ht="15" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4914,7 +5045,7 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:17" ht="15" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4933,7 +5064,7 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:17" ht="15" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4952,7 +5083,7 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:17" ht="15" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4971,7 +5102,7 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:17" ht="15" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4990,7 +5121,7 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:17" ht="15" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5009,7 +5140,7 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:17" ht="15" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5028,7 +5159,7 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:17" ht="15" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5047,7 +5178,7 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:17" ht="15" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5066,7 +5197,7 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:17" ht="15" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5085,7 +5216,7 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:17" ht="15" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5104,7 +5235,7 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:17" ht="15" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5123,7 +5254,7 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:17" ht="15" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5142,7 +5273,7 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:17" ht="15" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5161,7 +5292,7 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:17" ht="15" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5180,7 +5311,7 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:17" ht="15" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5199,7 +5330,7 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:17" ht="15" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5218,7 +5349,7 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:17" ht="15" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5237,7 +5368,7 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:17" ht="15" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5256,7 +5387,7 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:17" ht="15" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5275,7 +5406,7 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:17" ht="15" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5294,7 +5425,7 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:17" ht="15" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5313,7 +5444,7 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:17" ht="15" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5332,7 +5463,7 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:17" ht="15" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5351,7 +5482,7 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:17" ht="15" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5370,7 +5501,7 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:17" ht="15" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5389,7 +5520,7 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:17" ht="15" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5408,7 +5539,7 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:17" ht="15" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5427,7 +5558,7 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:17" ht="15" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5446,7 +5577,7 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:17" ht="15" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5465,7 +5596,7 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:17" ht="15" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5484,7 +5615,7 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:17" ht="15" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5503,7 +5634,7 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:17" ht="15" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5522,7 +5653,7 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:17" ht="15" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5541,7 +5672,7 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:17" ht="15" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5560,7 +5691,7 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:17" ht="15" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5579,7 +5710,7 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:17" ht="15" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5598,7 +5729,7 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:17" ht="15" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5617,7 +5748,7 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:17" ht="15" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5636,7 +5767,7 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:17" ht="15" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5655,7 +5786,7 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:17" ht="15" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5674,7 +5805,7 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:17" ht="15" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5693,7 +5824,7 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:17" ht="15" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5712,7 +5843,7 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:17" ht="15" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5731,7 +5862,7 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:17" ht="15" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5750,7 +5881,7 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:17" ht="15" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5769,7 +5900,7 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:17" ht="15" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5788,7 +5919,7 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="238" spans="12:17" ht="15" customHeight="1">
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -5796,7 +5927,7 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="239" spans="12:17" ht="15" customHeight="1">
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -5804,7 +5935,7 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="240" spans="12:17" ht="15" customHeight="1">
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -5812,7 +5943,7 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
     </row>
-    <row r="241" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="241" spans="12:17" ht="15" customHeight="1">
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
@@ -5820,7 +5951,7 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
     </row>
-    <row r="242" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="242" spans="12:17" ht="15" customHeight="1">
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -5828,7 +5959,7 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
     </row>
-    <row r="243" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="243" spans="12:17" ht="15" customHeight="1">
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
@@ -5836,7 +5967,7 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
     </row>
-    <row r="244" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="244" spans="12:17" ht="15" customHeight="1">
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -5844,7 +5975,7 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
     </row>
-    <row r="245" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="245" spans="12:17" ht="15" customHeight="1">
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -5852,7 +5983,7 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
     </row>
-    <row r="246" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="246" spans="12:17" ht="15" customHeight="1">
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
@@ -5860,7 +5991,7 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
     </row>
-    <row r="247" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="247" spans="12:17" ht="15" customHeight="1">
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -5868,7 +5999,7 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
     </row>
-    <row r="248" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="248" spans="12:17" ht="15" customHeight="1">
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -5876,7 +6007,7 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
     </row>
-    <row r="249" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="249" spans="12:17" ht="15" customHeight="1">
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -5884,105 +6015,105 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
     </row>
-    <row r="250" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="250" spans="12:17" ht="15" customHeight="1">
       <c r="L250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
     </row>
-    <row r="251" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="251" spans="12:17" ht="15" customHeight="1">
       <c r="L251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
     </row>
-    <row r="252" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="252" spans="12:17" ht="15" customHeight="1">
       <c r="L252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
     </row>
-    <row r="253" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="253" spans="12:17" ht="15" customHeight="1">
       <c r="L253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
     </row>
-    <row r="254" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="254" spans="14:17" ht="15" customHeight="1">
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
     </row>
-    <row r="255" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="255" spans="14:17" ht="15" customHeight="1">
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
     </row>
-    <row r="256" spans="12:17" x14ac:dyDescent="0.45">
+    <row r="256" spans="14:17" ht="15" customHeight="1">
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
     </row>
-    <row r="257" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="257" spans="14:17" ht="15" customHeight="1">
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
     </row>
-    <row r="258" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="258" spans="14:17" ht="15" customHeight="1">
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
     </row>
-    <row r="259" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="259" spans="14:17" ht="15" customHeight="1">
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
     </row>
-    <row r="260" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="260" spans="14:17" ht="15" customHeight="1">
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
     </row>
-    <row r="261" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="261" spans="16:17" ht="15" customHeight="1">
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
     </row>
-    <row r="262" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="262" spans="16:17" ht="15" customHeight="1">
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
     </row>
-    <row r="263" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="263" spans="16:17" ht="15" customHeight="1">
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
     </row>
-    <row r="264" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="264" spans="16:17" ht="15" customHeight="1">
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
     </row>
-    <row r="265" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="265" spans="16:17" ht="15" customHeight="1">
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
     </row>
-    <row r="266" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="266" spans="16:17" ht="15" customHeight="1">
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
     </row>
-    <row r="267" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="267" spans="16:17" ht="15" customHeight="1">
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
     </row>
-    <row r="268" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="268" spans="16:17" ht="15" customHeight="1">
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
     </row>
@@ -6056,11 +6187,12 @@
     <mergeCell ref="B41:J42"/>
     <mergeCell ref="A34:C34"/>
   </mergeCells>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9" scale="70"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
+    <brk id="10" max="65535" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>